--- a/pred_ohlcv/54_21/2020-01-24 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 TRV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-461739.1886000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-466617.4698000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-471431.3924000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-488956.6228000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-524598.2916000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-724100.0716000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1342797.8864</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1317690.0873</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1232865.6255</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1232688.237314346</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1237694.370714346</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1344437.488914346</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1349437.488914346</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1419407.4889</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1419888.4876</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-619478.8037408392</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-756902.903840839</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-689648.3207408391</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-689598.3207408391</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-707620.9878408391</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-707620.9878408391</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 TRV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-461739.1886000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-466617.4698000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-471431.3924000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-488956.6228000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-524598.2916000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-724100.0716000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-881331.0422</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1342797.8864</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1317690.0873</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1232781.237314346</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1232688.237314346</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1237744.370714346</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1237694.370714346</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1254487.488914346</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1344487.488914346</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1344437.488914346</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1349437.488914346</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1419407.4889</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1419888.4876</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-619478.8037408392</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-619528.8037408392</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-619578.8037408392</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-656562.2942408392</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-756902.903840839</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-689648.3207408391</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-689598.3207408391</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-707620.9878408391</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-707620.9878408391</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
